--- a/docs/画面項目定義書/仮想ネットワーク作成モーダル.xlsx
+++ b/docs/画面項目定義書/仮想ネットワーク作成モーダル.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1A0281-EFE7-4D4D-8259-17188E8E4032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D1E04A-352B-47EE-AC37-A5D22B00D050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>ファイル名</t>
   </si>
   <si>
-    <t>利用者ダッシュボード画面</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -177,6 +174,16 @@
   </si>
   <si>
     <t>仮想ネットワーク管理ダッシュボードへ遷移</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>仮想ネットワーク作成モーダル</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1044,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1111,7 +1118,7 @@
     </row>
     <row r="6" spans="1:7" ht="13">
       <c r="A6" s="38" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="11"/>
@@ -1131,25 +1138,25 @@
     </row>
     <row r="8" spans="1:7" ht="13">
       <c r="A8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="C8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="E8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="F8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="G8" s="20" t="s">
         <v>9</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13">
@@ -1168,14 +1175,14 @@
         <v>2</v>
       </c>
       <c r="B10" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>11</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>12</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="33"/>
     </row>
@@ -1184,18 +1191,18 @@
         <v>3</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13">
@@ -1203,18 +1210,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="24">
@@ -1222,14 +1229,14 @@
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="34"/>
@@ -1239,10 +1246,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="24">
@@ -1250,14 +1257,14 @@
         <v>7</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="34"/>
@@ -1267,14 +1274,14 @@
         <v>8</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="34"/>
